--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\yep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t00216714\Desktop\initials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3EE3E-0FB0-4B66-B0E9-9F553499A78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6929A0-1348-4C31-8A1D-787DBB7E1052}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{82FD7B4E-FCDA-4BD8-8B04-171F58826536}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -615,6 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBBF6AA-5732-43A9-80DF-EECE7BB5C40A}">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1855,27 +1856,26 @@
     </row>
     <row r="21" spans="13:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M21" s="15"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="50"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
     </row>
     <row r="22" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M22" s="15"/>
-      <c r="U22" s="49"/>
+      <c r="U22" s="48"/>
       <c r="V22" s="48"/>
-      <c r="W22" s="50"/>
+      <c r="W22" s="48"/>
     </row>
     <row r="23" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U23" s="49"/>
+      <c r="U23" s="48"/>
       <c r="V23" s="48"/>
-      <c r="W23" s="50"/>
-    </row>
-    <row r="24" spans="13:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U24" s="51"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="53"/>
-    </row>
-    <row r="25" spans="13:31" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="W23" s="48"/>
+    </row>
+    <row r="24" spans="13:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
